--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhihuitang/repo/python/Provsvar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079F2388-2B62-DC47-ABDD-DB95BD922F86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE93D4BC-5B3D-CC47-BB72-D3423FB6AE82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{DBE3080E-B9F2-3742-A561-42170D0095D6}"/>
+    <workbookView xWindow="3200" yWindow="680" windowWidth="28040" windowHeight="17440" xr2:uid="{DBE3080E-B9F2-3742-A561-42170D0095D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Min</t>
   </si>
@@ -96,15 +96,37 @@
   </si>
   <si>
     <t>P--PTH (Paratyrin) (pmol/L)</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>P--Cystatin C (mg/L)</t>
+  </si>
+  <si>
+    <t>Pt-eGFR(CysC)relativ (mL/min/1.7)</t>
+  </si>
+  <si>
+    <t>B--Leukocyter (10(9)/L)</t>
+  </si>
+  <si>
+    <t>B--MCV (fL)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -131,14 +153,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -448,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37641AEF-A466-714D-B948-CFC59032FB63}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,102 +525,248 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1.05</v>
-      </c>
-      <c r="C2">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="C6">
+        <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C7">
+        <v>1.33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>999</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <v>999</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>1.6</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
+      <c r="B13">
+        <v>0.7</v>
+      </c>
+      <c r="C13">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
+      <c r="B14">
+        <v>0.7</v>
+      </c>
+      <c r="C14">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>0.6</v>
+      </c>
+      <c r="C15">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>3.5</v>
+      </c>
+      <c r="C16">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>3.5</v>
+      </c>
+      <c r="C17">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>4.2</v>
+      </c>
+      <c r="C18">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>134</v>
+      </c>
+      <c r="C19">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>0.39</v>
+      </c>
+      <c r="C20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>82</v>
+      </c>
+      <c r="C21">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(ISNUMBER(B6),OR(B6&lt;2.15, B6&gt;2.5))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A24">
+    <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="yesterday">
+      <formula>FLOOR(A2,1)=TODAY()-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A24">
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhihuitang/repo/python/Provsvar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE93D4BC-5B3D-CC47-BB72-D3423FB6AE82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D62EDA-B549-6742-8812-D0E482417C35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3200" yWindow="680" windowWidth="28040" windowHeight="17440" xr2:uid="{DBE3080E-B9F2-3742-A561-42170D0095D6}"/>
   </bookViews>
@@ -505,7 +505,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -747,10 +747,22 @@
       <c r="A23" t="s">
         <v>18</v>
       </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
